--- a/docs/questions/results-anon.xlsx
+++ b/docs/questions/results-anon.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>a</t>
   </si>
@@ -73,13 +73,25 @@
   </si>
   <si>
     <t>ezjhdm</t>
+  </si>
+  <si>
+    <t>Ki</t>
+  </si>
+  <si>
+    <t>So</t>
+  </si>
+  <si>
+    <t>Ex</t>
+  </si>
+  <si>
+    <t>Ac</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +113,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -121,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -184,25 +202,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -494,34 +531,34 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="4">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4">
+      <c r="B1" s="9">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9">
         <v>2</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9">
         <v>3</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9">
         <v>4</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9">
         <v>5</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9">
         <v>6</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4">
+      <c r="M1" s="9"/>
+      <c r="N1" s="9">
         <v>7</v>
       </c>
-      <c r="O1" s="4"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -1039,59 +1076,59 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
-        <f>SUM(B3:B12)</f>
+        <f t="shared" ref="B13:O13" si="0">SUM(B3:B12)</f>
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <f>SUM(C3:C12)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D13" s="2">
-        <f>SUM(D3:D12)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E13" s="2">
-        <f>SUM(E3:E12)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F13" s="2">
-        <f>SUM(F3:F12)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G13" s="2">
-        <f>SUM(G3:G12)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H13" s="2">
-        <f>SUM(H3:H12)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I13" s="2">
-        <f>SUM(I3:I12)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J13" s="2">
-        <f>SUM(J3:J12)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="K13" s="2">
-        <f>SUM(K3:K12)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="L13" s="2">
-        <f>SUM(L3:L12)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M13" s="2">
-        <f>SUM(M3:M12)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="N13" s="2">
-        <f>SUM(N3:N12)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="O13" s="2">
-        <f>SUM(O3:O12)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1215,55 +1252,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K15"/>
+  <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D2" s="7" t="s">
+    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="L2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5">
+      <c r="C3" s="9"/>
+      <c r="D3" s="4">
         <v>0.4</v>
       </c>
       <c r="E3">
         <v>0.6</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>0.75</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>0.25</v>
       </c>
       <c r="H3">
@@ -1272,28 +1321,40 @@
       <c r="I3">
         <v>0.6</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>0.65</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="L3" s="10">
+        <v>61</v>
+      </c>
+      <c r="M3" s="10">
+        <v>22</v>
+      </c>
+      <c r="N3" s="10">
+        <v>94</v>
+      </c>
+      <c r="O3" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5">
+      <c r="C4" s="9"/>
+      <c r="D4" s="4">
         <v>0</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>0.45</v>
       </c>
       <c r="H4">
@@ -1302,28 +1363,40 @@
       <c r="I4">
         <v>0.4</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>0.5</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="L4" s="10">
+        <v>89</v>
+      </c>
+      <c r="M4" s="10">
+        <v>28</v>
+      </c>
+      <c r="N4" s="10">
+        <v>44</v>
+      </c>
+      <c r="O4" s="10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5">
+      <c r="C5" s="9"/>
+      <c r="D5" s="4">
         <v>0.8</v>
       </c>
       <c r="E5">
         <v>0.2</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>0.4</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>0.6</v>
       </c>
       <c r="H5">
@@ -1332,28 +1405,40 @@
       <c r="I5">
         <v>0.25</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>0.7</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="L5" s="10">
+        <v>72</v>
+      </c>
+      <c r="M5" s="10">
+        <v>44</v>
+      </c>
+      <c r="N5" s="10">
+        <v>56</v>
+      </c>
+      <c r="O5" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5">
+      <c r="C6" s="9"/>
+      <c r="D6" s="4">
         <v>0</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>0.6</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>0.4</v>
       </c>
       <c r="H6">
@@ -1362,28 +1447,40 @@
       <c r="I6">
         <v>0.3</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>0.65</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="L6" s="10">
+        <v>89</v>
+      </c>
+      <c r="M6" s="10">
+        <v>33</v>
+      </c>
+      <c r="N6" s="10">
+        <v>22</v>
+      </c>
+      <c r="O6" s="10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5">
+      <c r="C7" s="9"/>
+      <c r="D7" s="4">
         <v>0.1</v>
       </c>
       <c r="E7">
         <v>0.9</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>0.25</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>0.75</v>
       </c>
       <c r="H7">
@@ -1392,82 +1489,100 @@
       <c r="I7">
         <v>0.3</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>0.7</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="L7" s="10">
+        <v>22</v>
+      </c>
+      <c r="M7" s="10">
+        <v>44</v>
+      </c>
+      <c r="N7" s="10">
+        <v>94</v>
+      </c>
+      <c r="O7" s="10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
@@ -1475,13 +1590,8 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/questions/results-anon.xlsx
+++ b/docs/questions/results-anon.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>a</t>
   </si>
@@ -85,6 +85,48 @@
   </si>
   <si>
     <t>Ac</t>
+  </si>
+  <si>
+    <t>gixciq</t>
+  </si>
+  <si>
+    <t>iiymftd</t>
+  </si>
+  <si>
+    <t>ipvkxz</t>
+  </si>
+  <si>
+    <t>khlrds</t>
+  </si>
+  <si>
+    <t>mbrqxmh</t>
+  </si>
+  <si>
+    <t>momelpp</t>
+  </si>
+  <si>
+    <t>najnbd</t>
+  </si>
+  <si>
+    <t>oeffkq</t>
+  </si>
+  <si>
+    <t>xeglkzk</t>
+  </si>
+  <si>
+    <t>qhjuwz</t>
+  </si>
+  <si>
+    <t>qqbviv</t>
+  </si>
+  <si>
+    <t>qxtwnn</t>
+  </si>
+  <si>
+    <t>rbphhyh</t>
+  </si>
+  <si>
+    <t>sbxtxt</t>
   </si>
 </sst>
 </file>
@@ -223,7 +265,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -233,13 +275,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -531,34 +575,34 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="9">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9">
+      <c r="B1" s="11">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11">
         <v>2</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11">
         <v>3</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11">
         <v>4</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11">
         <v>5</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9">
+      <c r="K1" s="11"/>
+      <c r="L1" s="11">
         <v>6</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9">
+      <c r="M1" s="11"/>
+      <c r="N1" s="11">
         <v>7</v>
       </c>
-      <c r="O1" s="9"/>
+      <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -609,10 +653,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -662,10 +706,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -703,10 +747,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -715,22 +759,22 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -756,22 +800,22 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -780,10 +824,10 @@
         <v>1</v>
       </c>
       <c r="L6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="1">
         <v>1</v>
@@ -827,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
         <v>1</v>
@@ -850,10 +894,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -897,16 +941,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -927,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -938,34 +982,34 @@
         <v>50</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1">
         <v>1</v>
@@ -991,10 +1035,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -1003,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -1015,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
         <v>1</v>
@@ -1038,22 +1082,22 @@
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -1062,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
         <v>1</v>
@@ -1077,35 +1121,35 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <f t="shared" ref="B13:O13" si="0">SUM(B3:B12)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
@@ -1117,19 +1161,19 @@
       </c>
       <c r="L13" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1147,11 +1191,11 @@
       </c>
       <c r="F14" s="2">
         <f>SUM(D13+F13)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G14" s="2">
         <f>SUM(E13+G13)</f>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1161,11 +1205,11 @@
       </c>
       <c r="J14" s="2">
         <f>SUM(H13+J13)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K14" s="2">
         <f>SUM(I13+K13)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1175,21 +1219,21 @@
       </c>
       <c r="N14" s="2">
         <f>SUM(L13+N13)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O14" s="2">
         <f>SUM(M13+O13)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>SUM(B13/(B13+C13))</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C15">
         <f>SUM(C13/(C13+B13))</f>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
@@ -1213,27 +1257,27 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F16">
         <f>SUM(F14/(F14+G14))</f>
-        <v>0.25</v>
+        <v>0.65</v>
       </c>
       <c r="G16">
         <f>SUM(G14/(G14+F14))</f>
-        <v>0.75</v>
+        <v>0.35</v>
       </c>
       <c r="J16">
         <f>SUM(J14/(J14+K14))</f>
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="K16">
         <f>SUM(K14/(K14+J14))</f>
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="N16">
         <f>SUM(N14/(N14+O14))</f>
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="O16">
         <f>SUM(O14/(O14+N14))</f>
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -1252,15 +1296,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O15"/>
+  <dimension ref="A2:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1285,24 +1329,27 @@
       <c r="K2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="4">
         <v>0.4</v>
       </c>
@@ -1327,24 +1374,27 @@
       <c r="K3" s="5">
         <v>0.35</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="9">
         <v>61</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="9">
         <v>22</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="9">
         <v>94</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="9">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="4">
         <v>0</v>
       </c>
@@ -1369,24 +1419,27 @@
       <c r="K4" s="5">
         <v>0.5</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="9">
         <v>89</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="9">
         <v>28</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="9">
         <v>44</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="9">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="4">
         <v>0.8</v>
       </c>
@@ -1411,24 +1464,27 @@
       <c r="K5" s="5">
         <v>0.3</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="9">
         <v>72</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="9">
         <v>44</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="9">
         <v>56</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="9">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="4">
         <v>0</v>
       </c>
@@ -1453,24 +1509,27 @@
       <c r="K6" s="5">
         <v>0.35</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="9">
         <v>89</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="9">
         <v>33</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="9">
         <v>22</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="9">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="4">
         <v>0.1</v>
       </c>
@@ -1495,94 +1554,668 @@
       <c r="K7" s="5">
         <v>0.3</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="9">
         <v>22</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="9">
         <v>44</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="9">
         <v>94</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="9">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E8">
+        <v>0.8</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="H8">
+        <v>0.6</v>
+      </c>
+      <c r="I8">
+        <v>0.4</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="L8" s="9">
+        <v>22</v>
+      </c>
+      <c r="M8" s="9">
+        <v>50</v>
+      </c>
+      <c r="N8" s="9">
+        <v>61</v>
+      </c>
+      <c r="O8" s="9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H9">
+        <v>0.75</v>
+      </c>
+      <c r="I9">
+        <v>0.25</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="L9" s="9">
+        <v>56</v>
+      </c>
+      <c r="M9" s="9">
+        <v>17</v>
+      </c>
+      <c r="N9" s="9">
+        <v>89</v>
+      </c>
+      <c r="O9" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E10">
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H10">
+        <v>0.3</v>
+      </c>
+      <c r="I10">
+        <v>0.7</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="L10" s="9">
+        <v>22</v>
+      </c>
+      <c r="M10" s="9">
+        <v>44</v>
+      </c>
+      <c r="N10" s="9">
+        <v>78</v>
+      </c>
+      <c r="O10" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E11">
+        <v>0.9</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H11">
+        <v>0.6</v>
+      </c>
+      <c r="I11">
+        <v>0.4</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="L11" s="9">
+        <v>67</v>
+      </c>
+      <c r="M11" s="9">
+        <v>22</v>
+      </c>
+      <c r="N11" s="9">
+        <v>39</v>
+      </c>
+      <c r="O11" s="9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E12">
+        <v>0.7</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H12">
+        <v>0.5</v>
+      </c>
+      <c r="I12">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="L12" s="9">
+        <v>22</v>
+      </c>
+      <c r="M12" s="9">
+        <v>61</v>
+      </c>
+      <c r="N12" s="9">
+        <v>83</v>
+      </c>
+      <c r="O12" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E13">
+        <v>0.9</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="L13" s="9">
+        <v>22</v>
+      </c>
+      <c r="M13" s="9">
+        <v>17</v>
+      </c>
+      <c r="N13" s="9">
+        <v>100</v>
+      </c>
+      <c r="O13" s="9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E14">
+        <v>0.9</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="H14">
+        <v>0.25</v>
+      </c>
+      <c r="I14">
+        <v>0.75</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="L14" s="9">
+        <v>6</v>
+      </c>
+      <c r="M14" s="9">
+        <v>56</v>
+      </c>
+      <c r="N14" s="9">
+        <v>100</v>
+      </c>
+      <c r="O14" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="L15" s="9">
+        <v>39</v>
+      </c>
+      <c r="M15" s="9">
+        <v>39</v>
+      </c>
+      <c r="N15" s="9">
+        <v>50</v>
+      </c>
+      <c r="O15" s="9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="L16" s="9">
+        <v>61</v>
+      </c>
+      <c r="M16" s="9">
+        <v>33</v>
+      </c>
+      <c r="N16" s="9">
+        <v>61</v>
+      </c>
+      <c r="O16" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="L17" s="9">
+        <v>100</v>
+      </c>
+      <c r="M17" s="9">
+        <v>11</v>
+      </c>
+      <c r="N17" s="9">
+        <v>50</v>
+      </c>
+      <c r="O17" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="L18" s="9">
+        <v>17</v>
+      </c>
+      <c r="M18" s="9">
+        <v>56</v>
+      </c>
+      <c r="N18" s="9">
+        <v>61</v>
+      </c>
+      <c r="O18" s="9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="9">
+        <v>67</v>
+      </c>
+      <c r="M19" s="9">
+        <v>22</v>
+      </c>
+      <c r="N19" s="9">
+        <v>39</v>
+      </c>
+      <c r="O19" s="9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="L20" s="9">
+        <v>11</v>
+      </c>
+      <c r="M20" s="9">
+        <v>50</v>
+      </c>
+      <c r="N20" s="9">
+        <v>78</v>
+      </c>
+      <c r="O20" s="9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="L21" s="9">
+        <v>83</v>
+      </c>
+      <c r="M21" s="9">
+        <v>22</v>
+      </c>
+      <c r="N21" s="9">
+        <v>61</v>
+      </c>
+      <c r="O21" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
+  <mergeCells count="20">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
@@ -1590,6 +2223,12 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/questions/results-anon.xlsx
+++ b/docs/questions/results-anon.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>a</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>sbxtxt</t>
+  </si>
+  <si>
+    <t>sfbgjhy</t>
   </si>
 </sst>
 </file>
@@ -279,11 +282,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -575,34 +578,34 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="11">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11">
+      <c r="B1" s="13">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13">
         <v>2</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13">
         <v>3</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13">
         <v>4</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13">
         <v>5</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11">
+      <c r="K1" s="13"/>
+      <c r="L1" s="13">
         <v>6</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13">
         <v>7</v>
       </c>
-      <c r="O1" s="11"/>
+      <c r="O1" s="13"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -653,10 +656,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -671,22 +674,22 @@
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
@@ -712,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -730,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
         <v>1</v>
@@ -747,10 +750,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -765,10 +768,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -800,10 +803,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -812,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -859,10 +862,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -900,10 +903,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -953,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -971,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -982,16 +985,16 @@
         <v>50</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -1006,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1">
         <v>1</v>
@@ -1041,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -1076,10 +1079,10 @@
         <v>64</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -1094,16 +1097,16 @@
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="1">
         <v>1</v>
@@ -1137,27 +1140,27 @@
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="0"/>
@@ -1169,11 +1172,11 @@
       </c>
       <c r="N13" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1191,11 +1194,11 @@
       </c>
       <c r="F14" s="2">
         <f>SUM(D13+F13)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="2">
         <f>SUM(E13+G13)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1205,11 +1208,11 @@
       </c>
       <c r="J14" s="2">
         <f>SUM(H13+J13)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K14" s="2">
         <f>SUM(I13+K13)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1219,11 +1222,11 @@
       </c>
       <c r="N14" s="2">
         <f>SUM(L13+N13)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O14" s="2">
         <f>SUM(M13+O13)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1257,27 +1260,27 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F16">
         <f>SUM(F14/(F14+G14))</f>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="G16">
         <f>SUM(G14/(G14+F14))</f>
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="J16">
         <f>SUM(J14/(J14+K14))</f>
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="K16">
         <f>SUM(K14/(K14+J14))</f>
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="N16">
         <f>SUM(N14/(N14+O14))</f>
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="O16">
         <f>SUM(O14/(O14+N14))</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -1296,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O22"/>
+  <dimension ref="A2:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22:O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,10 +1349,10 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="4">
         <v>0.4</v>
       </c>
@@ -1391,10 +1394,10 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="4">
         <v>0</v>
       </c>
@@ -1436,10 +1439,10 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="4">
         <v>0.8</v>
       </c>
@@ -1481,10 +1484,10 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="4">
         <v>0</v>
       </c>
@@ -1526,10 +1529,10 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="4">
         <v>0.1</v>
       </c>
@@ -1571,10 +1574,10 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="4">
         <v>0.2</v>
       </c>
@@ -1616,10 +1619,10 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="4">
         <v>0</v>
       </c>
@@ -1661,10 +1664,10 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="4">
         <v>0.3</v>
       </c>
@@ -1706,10 +1709,10 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="4">
         <v>0.1</v>
       </c>
@@ -1751,10 +1754,10 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="4">
         <v>0.3</v>
       </c>
@@ -1796,10 +1799,10 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="4">
         <v>0.1</v>
       </c>
@@ -1841,10 +1844,10 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="4">
         <v>0.1</v>
       </c>
@@ -1886,20 +1889,20 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="4">
         <v>0.5</v>
       </c>
       <c r="E15" s="5">
         <v>0.5</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>0.8</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="12">
         <v>0.2</v>
       </c>
       <c r="H15" s="4">
@@ -1931,20 +1934,20 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="11"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="4">
         <v>0.7</v>
       </c>
       <c r="E16" s="5">
         <v>0.3</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>0.6</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="12">
         <v>0.4</v>
       </c>
       <c r="H16" s="4">
@@ -1976,20 +1979,20 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="4">
         <v>0.4</v>
       </c>
       <c r="E17" s="5">
         <v>0.6</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>0.65</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <v>0.35</v>
       </c>
       <c r="H17" s="4">
@@ -2021,20 +2024,20 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="4">
         <v>0.4</v>
       </c>
       <c r="E18" s="5">
         <v>0.6</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>0.65</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="12">
         <v>0.35</v>
       </c>
       <c r="H18" s="4">
@@ -2066,20 +2069,20 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="4">
         <v>0</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <v>0.3</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="12">
         <v>0.7</v>
       </c>
       <c r="H19" s="4">
@@ -2111,20 +2114,20 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="11"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="4">
         <v>0.3</v>
       </c>
       <c r="E20" s="5">
         <v>0.7</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <v>0.6</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="12">
         <v>0.4</v>
       </c>
       <c r="H20" s="4">
@@ -2156,20 +2159,20 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="11"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="4">
         <v>0.2</v>
       </c>
       <c r="E21" s="5">
         <v>0.8</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
         <v>0.65</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="12">
         <v>0.35</v>
       </c>
       <c r="H21" s="4">
@@ -2197,18 +2200,82 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="5"/>
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="L22" s="9">
+        <v>28</v>
+      </c>
+      <c r="M22" s="9">
+        <v>50</v>
+      </c>
+      <c r="N22" s="9">
+        <v>94</v>
+      </c>
+      <c r="O22" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="22">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B16:C16"/>
@@ -2216,19 +2283,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/questions/results-anon.xlsx
+++ b/docs/questions/results-anon.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>a</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>sfbgjhy</t>
+  </si>
+  <si>
+    <t>suachm</t>
+  </si>
+  <si>
+    <t>tmcypo</t>
   </si>
 </sst>
 </file>
@@ -656,16 +662,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -674,10 +680,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -692,10 +698,10 @@
         <v>1</v>
       </c>
       <c r="N3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -703,22 +709,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -733,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="1">
         <v>1</v>
@@ -750,10 +756,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -762,10 +768,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -774,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -797,10 +803,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -809,28 +815,28 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
         <v>1</v>
@@ -844,16 +850,16 @@
         <v>29</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -862,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -897,22 +903,22 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -938,10 +944,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -950,16 +956,16 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -968,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="1">
         <v>0</v>
@@ -985,10 +991,10 @@
         <v>50</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1021,10 +1027,10 @@
         <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1032,22 +1038,22 @@
         <v>57</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -1103,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="1">
         <v>1</v>
@@ -1124,35 +1130,35 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <f t="shared" ref="B13:O13" si="0">SUM(B3:B12)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
@@ -1164,19 +1170,19 @@
       </c>
       <c r="L13" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1194,11 +1200,11 @@
       </c>
       <c r="F14" s="2">
         <f>SUM(D13+F13)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G14" s="2">
         <f>SUM(E13+G13)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1208,11 +1214,11 @@
       </c>
       <c r="J14" s="2">
         <f>SUM(H13+J13)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K14" s="2">
         <f>SUM(I13+K13)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1222,21 +1228,21 @@
       </c>
       <c r="N14" s="2">
         <f>SUM(L13+N13)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O14" s="2">
         <f>SUM(M13+O13)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>SUM(B13/(B13+C13))</f>
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="C15">
         <f>SUM(C13/(C13+B13))</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
@@ -1260,27 +1266,27 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F16">
         <f>SUM(F14/(F14+G14))</f>
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="G16">
         <f>SUM(G14/(G14+F14))</f>
-        <v>0.4</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J16">
         <f>SUM(J14/(J14+K14))</f>
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="K16">
         <f>SUM(K14/(K14+J14))</f>
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="N16">
         <f>SUM(N14/(N14+O14))</f>
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="O16">
         <f>SUM(O14/(O14+N14))</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -1301,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22:O22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2245,22 +2251,104 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="13"/>
+      <c r="B23" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="C23" s="13"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D23" s="11">
+        <v>0</v>
+      </c>
+      <c r="E23" s="12">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="L23" s="9">
+        <v>39</v>
+      </c>
+      <c r="M23" s="9">
+        <v>22</v>
+      </c>
+      <c r="N23" s="9">
+        <v>83</v>
+      </c>
+      <c r="O23" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="13"/>
+      <c r="B24" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="C24" s="13"/>
+      <c r="D24" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="K24" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="L24" s="9">
+        <v>67</v>
+      </c>
+      <c r="M24" s="9">
+        <v>50</v>
+      </c>
+      <c r="N24" s="9">
+        <v>50</v>
+      </c>
+      <c r="O24" s="9">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B8:C8"/>
@@ -2277,12 +2365,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/questions/results-anon.xlsx
+++ b/docs/questions/results-anon.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\dissertation\docs\questions\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="3930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="3930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
   <si>
     <t>a</t>
   </si>
@@ -136,13 +132,40 @@
   </si>
   <si>
     <t>tmcypo</t>
+  </si>
+  <si>
+    <t>tqzblk</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>SJ</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t> -0.1482</t>
+  </si>
+  <si>
+    <t> 0.1482</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,8 +193,36 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,8 +240,23 @@
         <fgColor theme="7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -268,13 +334,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -293,10 +377,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="5"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="Accent4" xfId="2" builtinId="41"/>
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="5" builtinId="22"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -567,7 +661,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -668,10 +762,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -680,28 +774,28 @@
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -709,22 +803,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -739,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
         <v>1</v>
@@ -756,10 +850,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -768,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -780,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -803,16 +897,16 @@
         <v>22</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -821,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -874,22 +968,22 @@
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -903,10 +997,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -915,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -944,10 +1038,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -956,10 +1050,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -974,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -991,16 +1085,16 @@
         <v>50</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -1015,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1">
         <v>1</v>
@@ -1027,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1038,16 +1132,16 @@
         <v>57</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -1085,22 +1179,22 @@
         <v>64</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
@@ -1115,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
         <v>1</v>
@@ -1130,59 +1224,59 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <f t="shared" ref="B13:O13" si="0">SUM(B3:B12)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1200,11 +1294,11 @@
       </c>
       <c r="F14" s="2">
         <f>SUM(D13+F13)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G14" s="2">
         <f>SUM(E13+G13)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1214,11 +1308,11 @@
       </c>
       <c r="J14" s="2">
         <f>SUM(H13+J13)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K14" s="2">
         <f>SUM(I13+K13)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1228,21 +1322,21 @@
       </c>
       <c r="N14" s="2">
         <f>SUM(L13+N13)</f>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="O14" s="2">
         <f>SUM(M13+O13)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>SUM(B13/(B13+C13))</f>
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="C15">
         <f>SUM(C13/(C13+B13))</f>
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
@@ -1266,27 +1360,27 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F16">
         <f>SUM(F14/(F14+G14))</f>
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="G16">
         <f>SUM(G14/(G14+F14))</f>
-        <v>0.55000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="J16">
         <f>SUM(J14/(J14+K14))</f>
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="K16">
         <f>SUM(K14/(K14+J14))</f>
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="N16">
         <f>SUM(N14/(N14+O14))</f>
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="O16">
         <f>SUM(O14/(O14+N14))</f>
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -1305,15 +1399,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O24"/>
+  <dimension ref="A2:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1350,8 +1444,11 @@
       <c r="O2" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1395,8 +1492,18 @@
       <c r="O3" s="9">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q3" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="R3">
+        <v>0.4</v>
+      </c>
+      <c r="S3">
+        <f>AVERAGE(Q3:R3)</f>
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1440,8 +1547,18 @@
       <c r="O4" s="9">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q4" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="R4">
+        <v>0.6</v>
+      </c>
+      <c r="S4">
+        <f>AVERAGE(Q4:R4)</f>
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1485,8 +1602,18 @@
       <c r="O5" s="9">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q5" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="R5">
+        <v>0.75</v>
+      </c>
+      <c r="S5">
+        <f>AVERAGE(Q5:R5)</f>
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1530,8 +1657,18 @@
       <c r="O6" s="9">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q6" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="R6">
+        <v>0.7</v>
+      </c>
+      <c r="S6">
+        <f>AVERAGE(Q6:R6)</f>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1575,8 +1712,18 @@
       <c r="O7" s="9">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q7" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="R7">
+        <v>0.7</v>
+      </c>
+      <c r="S7">
+        <f>AVERAGE(Q7:R7)</f>
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1620,8 +1767,18 @@
       <c r="O8" s="9">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q8" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="R8">
+        <v>0.6</v>
+      </c>
+      <c r="S8">
+        <f>AVERAGE(Q8:R8)</f>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1639,7 +1796,7 @@
         <v>0.35</v>
       </c>
       <c r="G9" s="5">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="H9">
         <v>0.75</v>
@@ -1665,8 +1822,18 @@
       <c r="O9" s="9">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q9" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="R9">
+        <v>0.75</v>
+      </c>
+      <c r="S9">
+        <f>AVERAGE(Q9:R9)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1710,8 +1877,18 @@
       <c r="O10" s="9">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q10" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R10">
+        <v>0.3</v>
+      </c>
+      <c r="S10">
+        <f>AVERAGE(Q10:R10)</f>
+        <v>0.42500000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1755,8 +1932,18 @@
       <c r="O11" s="9">
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q11" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R11">
+        <v>0.6</v>
+      </c>
+      <c r="S11">
+        <f>AVERAGE(Q11:R11)</f>
+        <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1800,8 +1987,18 @@
       <c r="O12" s="9">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q12" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R12">
+        <v>0.5</v>
+      </c>
+      <c r="S12">
+        <f>AVERAGE(Q12:R12)</f>
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1845,8 +2042,18 @@
       <c r="O13" s="9">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q13" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <f>AVERAGE(Q13:R13)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1890,8 +2097,18 @@
       <c r="O14" s="9">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q14" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="R14">
+        <v>0.25</v>
+      </c>
+      <c r="S14">
+        <f>AVERAGE(Q14:R14)</f>
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1935,8 +2152,18 @@
       <c r="O15" s="9">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q15" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="S15">
+        <f>AVERAGE(Q15:R15)</f>
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1980,8 +2207,18 @@
       <c r="O16" s="9">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q16" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="S16">
+        <f>AVERAGE(Q16:R16)</f>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2025,8 +2262,18 @@
       <c r="O17" s="9">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q17" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="S17">
+        <f>AVERAGE(Q17:R17)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2070,8 +2317,18 @@
       <c r="O18" s="9">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q18" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="S18">
+        <f>AVERAGE(Q18:R18)</f>
+        <v>0.32499999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2115,8 +2372,18 @@
       <c r="O19" s="9">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q19" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="S19">
+        <f>AVERAGE(Q19:R19)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2160,8 +2427,18 @@
       <c r="O20" s="9">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q20" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="S20">
+        <f>AVERAGE(Q20:R20)</f>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2205,8 +2482,18 @@
       <c r="O21" s="9">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q21" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="S21">
+        <f>AVERAGE(Q21:R21)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2250,8 +2537,18 @@
       <c r="O22" s="9">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q22" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="S22">
+        <f>AVERAGE(Q22:R22)</f>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2295,8 +2592,18 @@
       <c r="O23" s="9">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q23" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="R23" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="S23">
+        <f>AVERAGE(Q23:R23)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2340,15 +2647,91 @@
       <c r="O24" s="9">
         <v>33</v>
       </c>
+      <c r="Q24" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R24" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="S24">
+        <f>AVERAGE(Q24:R24)</f>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="L25" s="9">
+        <v>11</v>
+      </c>
+      <c r="M25" s="9">
+        <v>50</v>
+      </c>
+      <c r="N25" s="9">
+        <v>89</v>
+      </c>
+      <c r="O25" s="9">
+        <v>50</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="S25">
+        <f>AVERAGE(Q25:R25)</f>
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
+  <mergeCells count="24">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B8:C8"/>
@@ -2365,8 +2748,487 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0.1283</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0.28070000000000001</v>
+      </c>
+      <c r="F3" s="18">
+        <v>-0.15679999999999999</v>
+      </c>
+      <c r="G3" s="18">
+        <v>-0.2863</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.559616</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.194498</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.47720899999999999</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0.18537000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="18">
+        <v>-0.1283</v>
+      </c>
+      <c r="E5" s="18">
+        <v>-0.28070000000000001</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0.15679999999999999</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0.2863</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0.559616</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.194498</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.47720899999999999</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.18537000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="18">
+        <v>-2.93E-2</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="18">
+        <v>2.46E-2</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0.15440000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.89442299999999997</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.52404399999999995</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.91128699999999996</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0.48179499999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="18">
+        <v>2.93E-2</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="18">
+        <v>-2.46E-2</v>
+      </c>
+      <c r="G9" s="18">
+        <v>-0.15440000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.89442299999999997</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.52404399999999995</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.91128699999999996</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0.48179499999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0.37230000000000002</v>
+      </c>
+      <c r="E11" s="18">
+        <v>-0.42420000000000002</v>
+      </c>
+      <c r="F11" s="18">
+        <v>-9.3100000000000002E-2</v>
+      </c>
+      <c r="G11" s="18">
+        <v>-0.1575</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="17">
+        <v>8.0214999999999995E-2</v>
+      </c>
+      <c r="E12" s="16">
+        <v>4.3768000000000001E-2</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.67298400000000003</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0.47293000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="18">
+        <v>-0.37230000000000002</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0.42420000000000002</v>
+      </c>
+      <c r="F13" s="18">
+        <v>9.3100000000000002E-2</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0.1575</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="17">
+        <v>8.0214999999999995E-2</v>
+      </c>
+      <c r="E14" s="16">
+        <v>4.3768000000000001E-2</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0.67298400000000003</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0.47293000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="18">
+        <v>-0.27210000000000001</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0.1671</v>
+      </c>
+      <c r="F15" s="18">
+        <v>0.33879999999999999</v>
+      </c>
+      <c r="G15" s="18">
+        <v>-0.15279999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.20927699999999999</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0.44601499999999999</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0.113786</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0.48640299999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0.27210000000000001</v>
+      </c>
+      <c r="E17" s="18">
+        <v>-0.1671</v>
+      </c>
+      <c r="F17" s="18">
+        <v>-0.33879999999999999</v>
+      </c>
+      <c r="G17" s="18">
+        <v>0.15279999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0.20927699999999999</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0.44601499999999999</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0.113786</v>
+      </c>
+      <c r="G18" s="17">
+        <v>0.48640299999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="18">
+        <v>0.2036</v>
+      </c>
+      <c r="E19" s="18">
+        <v>-0.26879999999999998</v>
+      </c>
+      <c r="F19" s="18">
+        <v>-0.26379999999999998</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0.2621</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0.35144500000000001</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0.214897</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0.22388</v>
+      </c>
+      <c r="G20" s="17">
+        <v>0.226989</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="18">
+        <v>-0.18390000000000001</v>
+      </c>
+      <c r="E21" s="18">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F21" s="18">
+        <v>0.22159999999999999</v>
+      </c>
+      <c r="G21" s="18">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0.400926</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0.96748999999999996</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0.30953599999999998</v>
+      </c>
+      <c r="G22" s="17">
+        <v>0.98699300000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="18">
+        <v>-0.246</v>
+      </c>
+      <c r="E23" s="18">
+        <v>0.38979999999999998</v>
+      </c>
+      <c r="F23" s="18">
+        <v>5.11E-2</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1.84E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0.25785400000000003</v>
+      </c>
+      <c r="E24" s="17">
+        <v>6.5963999999999995E-2</v>
+      </c>
+      <c r="F24" s="17">
+        <v>0.81688700000000003</v>
+      </c>
+      <c r="G24" s="17">
+        <v>0.93359000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="18">
+        <v>0.3291</v>
+      </c>
+      <c r="E25" s="18">
+        <v>-0.24690000000000001</v>
+      </c>
+      <c r="F25" s="18">
+        <v>-9.4500000000000001E-2</v>
+      </c>
+      <c r="G25" s="18">
+        <v>-0.2394</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="17">
+        <v>0.12518499999999999</v>
+      </c>
+      <c r="E26" s="17">
+        <v>0.25606099999999998</v>
+      </c>
+      <c r="F26" s="17">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="G26" s="17">
+        <v>0.27124900000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/questions/results-anon.xlsx
+++ b/docs/questions/results-anon.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
   <si>
     <t>a</t>
   </si>
@@ -159,13 +159,25 @@
   </si>
   <si>
     <t> 0.1482</t>
+  </si>
+  <si>
+    <t>Killer</t>
+  </si>
+  <si>
+    <t>Socialiser</t>
+  </si>
+  <si>
+    <t>Explorer</t>
+  </si>
+  <si>
+    <t>Achiever</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,28 +213,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,12 +244,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -350,15 +343,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -374,23 +366,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="5"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
+    <cellStyle name="40% - Accent3" xfId="4" builtinId="39"/>
     <cellStyle name="Accent4" xfId="2" builtinId="41"/>
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
-    <cellStyle name="Calculation" xfId="5" builtinId="22"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -661,7 +651,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -678,34 +668,34 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="13">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13">
+      <c r="B1" s="15">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15">
         <v>3</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15">
         <v>4</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15">
         <v>5</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13">
+      <c r="K1" s="15"/>
+      <c r="L1" s="15">
         <v>6</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13">
+      <c r="M1" s="15"/>
+      <c r="N1" s="15">
         <v>7</v>
       </c>
-      <c r="O1" s="13"/>
+      <c r="O1" s="15"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -1452,10 +1442,10 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="4">
         <v>0.4</v>
       </c>
@@ -1499,7 +1489,7 @@
         <v>0.4</v>
       </c>
       <c r="S3">
-        <f>AVERAGE(Q3:R3)</f>
+        <f t="shared" ref="S3:S25" si="0">AVERAGE(Q3:R3)</f>
         <v>0.32500000000000001</v>
       </c>
     </row>
@@ -1507,10 +1497,10 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="4">
         <v>0</v>
       </c>
@@ -1554,7 +1544,7 @@
         <v>0.6</v>
       </c>
       <c r="S4">
-        <f>AVERAGE(Q4:R4)</f>
+        <f t="shared" si="0"/>
         <v>0.52500000000000002</v>
       </c>
     </row>
@@ -1562,10 +1552,10 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="4">
         <v>0.8</v>
       </c>
@@ -1609,7 +1599,7 @@
         <v>0.75</v>
       </c>
       <c r="S5">
-        <f>AVERAGE(Q5:R5)</f>
+        <f t="shared" si="0"/>
         <v>0.67500000000000004</v>
       </c>
     </row>
@@ -1617,10 +1607,10 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="4">
         <v>0</v>
       </c>
@@ -1664,7 +1654,7 @@
         <v>0.7</v>
       </c>
       <c r="S6">
-        <f>AVERAGE(Q6:R6)</f>
+        <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -1672,10 +1662,10 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="4">
         <v>0.1</v>
       </c>
@@ -1719,7 +1709,7 @@
         <v>0.7</v>
       </c>
       <c r="S7">
-        <f>AVERAGE(Q7:R7)</f>
+        <f t="shared" si="0"/>
         <v>0.72499999999999998</v>
       </c>
     </row>
@@ -1727,10 +1717,10 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="4">
         <v>0.2</v>
       </c>
@@ -1774,7 +1764,7 @@
         <v>0.6</v>
       </c>
       <c r="S8">
-        <f>AVERAGE(Q8:R8)</f>
+        <f t="shared" si="0"/>
         <v>0.44999999999999996</v>
       </c>
     </row>
@@ -1782,10 +1772,10 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="4">
         <v>0</v>
       </c>
@@ -1829,7 +1819,7 @@
         <v>0.75</v>
       </c>
       <c r="S9">
-        <f>AVERAGE(Q9:R9)</f>
+        <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
     </row>
@@ -1837,10 +1827,10 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="4">
         <v>0.3</v>
       </c>
@@ -1884,7 +1874,7 @@
         <v>0.3</v>
       </c>
       <c r="S10">
-        <f>AVERAGE(Q10:R10)</f>
+        <f t="shared" si="0"/>
         <v>0.42500000000000004</v>
       </c>
     </row>
@@ -1892,10 +1882,10 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="4">
         <v>0.1</v>
       </c>
@@ -1939,7 +1929,7 @@
         <v>0.6</v>
       </c>
       <c r="S11">
-        <f>AVERAGE(Q11:R11)</f>
+        <f t="shared" si="0"/>
         <v>0.57499999999999996</v>
       </c>
     </row>
@@ -1947,10 +1937,10 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="4">
         <v>0.3</v>
       </c>
@@ -1994,7 +1984,7 @@
         <v>0.5</v>
       </c>
       <c r="S12">
-        <f>AVERAGE(Q12:R12)</f>
+        <f t="shared" si="0"/>
         <v>0.52500000000000002</v>
       </c>
     </row>
@@ -2002,10 +1992,10 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="4">
         <v>0.1</v>
       </c>
@@ -2049,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="S13">
-        <f>AVERAGE(Q13:R13)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
@@ -2057,10 +2047,10 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="4">
         <v>0.1</v>
       </c>
@@ -2104,7 +2094,7 @@
         <v>0.25</v>
       </c>
       <c r="S14">
-        <f>AVERAGE(Q14:R14)</f>
+        <f t="shared" si="0"/>
         <v>0.47499999999999998</v>
       </c>
     </row>
@@ -2112,10 +2102,10 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="4">
         <v>0.5</v>
       </c>
@@ -2159,7 +2149,7 @@
         <v>0.45</v>
       </c>
       <c r="S15">
-        <f>AVERAGE(Q15:R15)</f>
+        <f t="shared" si="0"/>
         <v>0.32500000000000001</v>
       </c>
     </row>
@@ -2167,10 +2157,10 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="4">
         <v>0.7</v>
       </c>
@@ -2214,7 +2204,7 @@
         <v>0.9</v>
       </c>
       <c r="S16">
-        <f>AVERAGE(Q16:R16)</f>
+        <f t="shared" si="0"/>
         <v>0.65</v>
       </c>
     </row>
@@ -2222,10 +2212,10 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="4">
         <v>0.4</v>
       </c>
@@ -2269,7 +2259,7 @@
         <v>0.85</v>
       </c>
       <c r="S17">
-        <f>AVERAGE(Q17:R17)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
@@ -2277,10 +2267,10 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="4">
         <v>0.4</v>
       </c>
@@ -2324,7 +2314,7 @@
         <v>0.3</v>
       </c>
       <c r="S18">
-        <f>AVERAGE(Q18:R18)</f>
+        <f t="shared" si="0"/>
         <v>0.32499999999999996</v>
       </c>
     </row>
@@ -2332,10 +2322,10 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="4">
         <v>0</v>
       </c>
@@ -2379,7 +2369,7 @@
         <v>0.5</v>
       </c>
       <c r="S19">
-        <f>AVERAGE(Q19:R19)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
@@ -2387,10 +2377,10 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="4">
         <v>0.3</v>
       </c>
@@ -2434,7 +2424,7 @@
         <v>0.5</v>
       </c>
       <c r="S20">
-        <f>AVERAGE(Q20:R20)</f>
+        <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
     </row>
@@ -2442,10 +2432,10 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="4">
         <v>0.2</v>
       </c>
@@ -2489,7 +2479,7 @@
         <v>0.65</v>
       </c>
       <c r="S21">
-        <f>AVERAGE(Q21:R21)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
@@ -2497,10 +2487,10 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="4">
         <v>0.2</v>
       </c>
@@ -2544,7 +2534,7 @@
         <v>0.6</v>
       </c>
       <c r="S22">
-        <f>AVERAGE(Q22:R22)</f>
+        <f t="shared" si="0"/>
         <v>0.44999999999999996</v>
       </c>
     </row>
@@ -2552,10 +2542,10 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="11">
         <v>0</v>
       </c>
@@ -2599,7 +2589,7 @@
         <v>0.45</v>
       </c>
       <c r="S23">
-        <f>AVERAGE(Q23:R23)</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
@@ -2607,10 +2597,10 @@
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="11">
         <v>0.8</v>
       </c>
@@ -2654,7 +2644,7 @@
         <v>0.65</v>
       </c>
       <c r="S24">
-        <f>AVERAGE(Q24:R24)</f>
+        <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
     </row>
@@ -2662,10 +2652,10 @@
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="14"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="4">
         <v>0.1</v>
       </c>
@@ -2709,7 +2699,7 @@
         <v>0.75</v>
       </c>
       <c r="S25">
-        <f>AVERAGE(Q25:R25)</f>
+        <f t="shared" si="0"/>
         <v>0.52500000000000002</v>
       </c>
     </row>
@@ -2717,29 +2707,32 @@
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="H26" s="4"/>
       <c r="I26" s="5"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
@@ -2751,9 +2744,6 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2764,24 +2754,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -2791,16 +2781,16 @@
       <c r="C3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>0.1283</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>0.28070000000000001</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <v>-0.15679999999999999</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="17">
         <v>-0.2863</v>
       </c>
     </row>
@@ -2808,16 +2798,16 @@
       <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4">
         <v>0.559616</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4">
         <v>0.194498</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4">
         <v>0.47720899999999999</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4">
         <v>0.18537000000000001</v>
       </c>
     </row>
@@ -2828,16 +2818,16 @@
       <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>-0.1283</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>-0.28070000000000001</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <v>0.15679999999999999</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <v>0.2863</v>
       </c>
     </row>
@@ -2845,16 +2835,16 @@
       <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6">
         <v>0.559616</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6">
         <v>0.194498</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6">
         <v>0.47720899999999999</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6">
         <v>0.18537000000000001</v>
       </c>
     </row>
@@ -2865,16 +2855,16 @@
       <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>-2.93E-2</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <v>2.46E-2</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <v>0.15440000000000001</v>
       </c>
     </row>
@@ -2882,16 +2872,16 @@
       <c r="C8" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8">
         <v>0.89442299999999997</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8">
         <v>0.52404399999999995</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8">
         <v>0.91128699999999996</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8">
         <v>0.48179499999999997</v>
       </c>
     </row>
@@ -2902,16 +2892,16 @@
       <c r="C9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>2.93E-2</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <v>-2.46E-2</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="17">
         <v>-0.15440000000000001</v>
       </c>
     </row>
@@ -2919,16 +2909,16 @@
       <c r="C10" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10">
         <v>0.89442299999999997</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10">
         <v>0.52404399999999995</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10">
         <v>0.91128699999999996</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10">
         <v>0.48179499999999997</v>
       </c>
     </row>
@@ -2939,16 +2929,16 @@
       <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>0.37230000000000002</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <v>-0.42420000000000002</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <v>-9.3100000000000002E-2</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="17">
         <v>-0.1575</v>
       </c>
     </row>
@@ -2956,16 +2946,16 @@
       <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12">
         <v>8.0214999999999995E-2</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>4.3768000000000001E-2</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12">
         <v>0.67298400000000003</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12">
         <v>0.47293000000000002</v>
       </c>
     </row>
@@ -2976,16 +2966,16 @@
       <c r="C13" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>-0.37230000000000002</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>0.42420000000000002</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <v>9.3100000000000002E-2</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="17">
         <v>0.1575</v>
       </c>
     </row>
@@ -2993,16 +2983,16 @@
       <c r="C14" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14">
         <v>8.0214999999999995E-2</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="14">
         <v>4.3768000000000001E-2</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14">
         <v>0.67298400000000003</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14">
         <v>0.47293000000000002</v>
       </c>
     </row>
@@ -3013,16 +3003,16 @@
       <c r="C15" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="17">
         <v>-0.27210000000000001</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <v>0.1671</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="17">
         <v>0.33879999999999999</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="17">
         <v>-0.15279999999999999</v>
       </c>
     </row>
@@ -3030,16 +3020,16 @@
       <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16">
         <v>0.20927699999999999</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16">
         <v>0.44601499999999999</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16">
         <v>0.113786</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16">
         <v>0.48640299999999997</v>
       </c>
     </row>
@@ -3050,16 +3040,16 @@
       <c r="C17" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="17">
         <v>0.27210000000000001</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <v>-0.1671</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="17">
         <v>-0.33879999999999999</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="17">
         <v>0.15279999999999999</v>
       </c>
     </row>
@@ -3067,16 +3057,16 @@
       <c r="C18" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18">
         <v>0.20927699999999999</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18">
         <v>0.44601499999999999</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18">
         <v>0.113786</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18">
         <v>0.48640299999999997</v>
       </c>
     </row>
@@ -3087,16 +3077,16 @@
       <c r="C19" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="17">
         <v>0.2036</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <v>-0.26879999999999998</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="17">
         <v>-0.26379999999999998</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="17">
         <v>0.2621</v>
       </c>
     </row>
@@ -3104,16 +3094,16 @@
       <c r="C20" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20">
         <v>0.35144500000000001</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20">
         <v>0.214897</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20">
         <v>0.22388</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20">
         <v>0.226989</v>
       </c>
     </row>
@@ -3124,16 +3114,16 @@
       <c r="C21" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="17">
         <v>-0.18390000000000001</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="17">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="17">
         <v>0.22159999999999999</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="17">
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
@@ -3141,16 +3131,16 @@
       <c r="C22" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22">
         <v>0.400926</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22">
         <v>0.96748999999999996</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22">
         <v>0.30953599999999998</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22">
         <v>0.98699300000000001</v>
       </c>
     </row>
@@ -3161,16 +3151,16 @@
       <c r="C23" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="17">
         <v>-0.246</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="17">
         <v>0.38979999999999998</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="17">
         <v>5.11E-2</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="17">
         <v>1.84E-2</v>
       </c>
     </row>
@@ -3178,16 +3168,16 @@
       <c r="C24" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24">
         <v>0.25785400000000003</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24">
         <v>6.5963999999999995E-2</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24">
         <v>0.81688700000000003</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24">
         <v>0.93359000000000003</v>
       </c>
     </row>
@@ -3198,16 +3188,16 @@
       <c r="C25" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="17">
         <v>0.3291</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="17">
         <v>-0.24690000000000001</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="17">
         <v>-9.4500000000000001E-2</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="17">
         <v>-0.2394</v>
       </c>
     </row>
@@ -3215,16 +3205,16 @@
       <c r="C26" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26">
         <v>0.12518499999999999</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26">
         <v>0.25606099999999998</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26">
         <v>0.66800000000000004</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26">
         <v>0.27124900000000002</v>
       </c>
     </row>

--- a/docs/questions/results-anon.xlsx
+++ b/docs/questions/results-anon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="3930" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="3930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="67">
   <si>
     <t>a</t>
   </si>
@@ -171,13 +171,64 @@
   </si>
   <si>
     <t>Achiever</t>
+  </si>
+  <si>
+    <t>ISFJ</t>
+  </si>
+  <si>
+    <t>IST*</t>
+  </si>
+  <si>
+    <t>ENTJ</t>
+  </si>
+  <si>
+    <t>ISTJ</t>
+  </si>
+  <si>
+    <t>INTJ</t>
+  </si>
+  <si>
+    <t>INTP</t>
+  </si>
+  <si>
+    <t>INFJ</t>
+  </si>
+  <si>
+    <t>IN*J</t>
+  </si>
+  <si>
+    <t>*SFP</t>
+  </si>
+  <si>
+    <t>ESTJ</t>
+  </si>
+  <si>
+    <t>IN**</t>
+  </si>
+  <si>
+    <t>IS*J</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Guardian</t>
+  </si>
+  <si>
+    <t>Artisan</t>
+  </si>
+  <si>
+    <t>Idealist</t>
+  </si>
+  <si>
+    <t>Rational</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,8 +269,45 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,8 +336,33 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -342,15 +455,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -368,19 +512,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" xfId="9"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="7"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="8"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="10">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="40% - Accent3" xfId="4" builtinId="39"/>
     <cellStyle name="Accent4" xfId="2" builtinId="41"/>
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="8" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="9" builtinId="23"/>
+    <cellStyle name="Good" xfId="5" builtinId="26"/>
+    <cellStyle name="Input" xfId="7" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="6" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -651,7 +825,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -668,34 +842,34 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="15">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15">
+      <c r="B1" s="16">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16">
         <v>2</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16">
         <v>3</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16">
         <v>4</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15">
+      <c r="I1" s="16"/>
+      <c r="J1" s="16">
         <v>5</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15">
+      <c r="K1" s="16"/>
+      <c r="L1" s="16">
         <v>6</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15">
+      <c r="M1" s="16"/>
+      <c r="N1" s="16">
         <v>7</v>
       </c>
-      <c r="O1" s="15"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -1389,10 +1563,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S29"/>
+  <dimension ref="A2:S34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,17 +1616,17 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="4">
         <v>0.4</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="21">
         <v>0.6</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="23">
         <v>0.75</v>
       </c>
       <c r="G3" s="5">
@@ -1461,10 +1635,10 @@
       <c r="H3">
         <v>0.4</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="21">
         <v>0.6</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="23">
         <v>0.65</v>
       </c>
       <c r="K3" s="5">
@@ -1476,11 +1650,14 @@
       <c r="M3" s="9">
         <v>22</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="18">
         <v>94</v>
       </c>
       <c r="O3" s="9">
         <v>22</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="Q3" s="5">
         <v>0.25</v>
@@ -1497,35 +1674,35 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="21">
+        <v>1</v>
+      </c>
+      <c r="F4" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="G4" s="5">
         <v>0.45</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="21">
         <v>0.6</v>
       </c>
       <c r="I4">
         <v>0.4</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="27">
         <v>0.5</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="26">
         <v>0.5</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="18">
         <v>89</v>
       </c>
       <c r="M4" s="9">
@@ -1536,6 +1713,9 @@
       </c>
       <c r="O4" s="9">
         <v>39</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="Q4" s="5">
         <v>0.45</v>
@@ -1552,11 +1732,11 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="4">
+      <c r="C5" s="16"/>
+      <c r="D5" s="23">
         <v>0.8</v>
       </c>
       <c r="E5">
@@ -1565,22 +1745,22 @@
       <c r="F5" s="4">
         <v>0.4</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="24">
         <v>0.6</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="21">
         <v>0.75</v>
       </c>
       <c r="I5">
         <v>0.25</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="23">
         <v>0.7</v>
       </c>
       <c r="K5" s="5">
         <v>0.3</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="18">
         <v>72</v>
       </c>
       <c r="M5" s="9">
@@ -1591,6 +1771,9 @@
       </c>
       <c r="O5" s="9">
         <v>28</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>52</v>
       </c>
       <c r="Q5" s="5">
         <v>0.6</v>
@@ -1607,35 +1790,35 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="4">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
+      <c r="F6" s="23">
         <v>0.6</v>
       </c>
       <c r="G6" s="5">
         <v>0.4</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="21">
         <v>0.7</v>
       </c>
       <c r="I6">
         <v>0.3</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="23">
         <v>0.65</v>
       </c>
       <c r="K6" s="5">
         <v>0.35</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="18">
         <v>89</v>
       </c>
       <c r="M6" s="9">
@@ -1646,6 +1829,9 @@
       </c>
       <c r="O6" s="9">
         <v>56</v>
+      </c>
+      <c r="P6" s="30" t="s">
+        <v>53</v>
       </c>
       <c r="Q6" s="5">
         <v>0.4</v>
@@ -1662,29 +1848,29 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="4">
         <v>0.1</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="21">
         <v>0.9</v>
       </c>
       <c r="F7" s="4">
         <v>0.25</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="24">
         <v>0.75</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="21">
         <v>0.7</v>
       </c>
       <c r="I7">
         <v>0.3</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="23">
         <v>0.7</v>
       </c>
       <c r="K7" s="5">
@@ -1696,11 +1882,14 @@
       <c r="M7" s="9">
         <v>44</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="18">
         <v>94</v>
       </c>
       <c r="O7" s="9">
         <v>39</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="Q7" s="5">
         <v>0.75</v>
@@ -1717,29 +1906,29 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="4">
         <v>0.2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="21">
         <v>0.8</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="23">
         <v>0.7</v>
       </c>
       <c r="G8" s="5">
         <v>0.3</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="21">
         <v>0.6</v>
       </c>
       <c r="I8">
         <v>0.4</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="23">
         <v>0.7</v>
       </c>
       <c r="K8" s="5">
@@ -1754,8 +1943,11 @@
       <c r="N8" s="9">
         <v>61</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="18">
         <v>67</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>53</v>
       </c>
       <c r="Q8" s="5">
         <v>0.3</v>
@@ -1772,23 +1964,23 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="4">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="21">
         <v>1</v>
       </c>
       <c r="F9" s="4">
         <v>0.35</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="24">
         <v>0.65</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="21">
         <v>0.75</v>
       </c>
       <c r="I9">
@@ -1797,7 +1989,7 @@
       <c r="J9" s="4">
         <v>0.3</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="24">
         <v>0.7</v>
       </c>
       <c r="L9" s="9">
@@ -1806,11 +1998,14 @@
       <c r="M9" s="9">
         <v>17</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="18">
         <v>89</v>
       </c>
       <c r="O9" s="9">
         <v>39</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>55</v>
       </c>
       <c r="Q9" s="5">
         <v>0.65</v>
@@ -1823,33 +2018,33 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="4">
         <v>0.3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="21">
         <v>0.7</v>
       </c>
       <c r="F10" s="4">
         <v>0.45</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="24">
         <v>0.55000000000000004</v>
       </c>
       <c r="H10">
         <v>0.3</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="21">
         <v>0.7</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="23">
         <v>0.8</v>
       </c>
       <c r="K10" s="5">
@@ -1861,10 +2056,13 @@
       <c r="M10" s="9">
         <v>44</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="18">
         <v>78</v>
       </c>
       <c r="O10" s="9">
+        <v>56</v>
+      </c>
+      <c r="P10" s="25" t="s">
         <v>56</v>
       </c>
       <c r="Q10" s="5">
@@ -1882,29 +2080,29 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="4">
         <v>0.1</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="21">
         <v>0.9</v>
       </c>
       <c r="F11" s="4">
         <v>0.45</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="24">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="21">
         <v>0.6</v>
       </c>
       <c r="I11">
         <v>0.4</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="23">
         <v>0.55000000000000004</v>
       </c>
       <c r="K11" s="5">
@@ -1919,8 +2117,11 @@
       <c r="N11" s="9">
         <v>39</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="18">
         <v>72</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="Q11" s="5">
         <v>0.55000000000000004</v>
@@ -1937,29 +2138,29 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="4">
         <v>0.3</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="21">
         <v>0.7</v>
       </c>
       <c r="F12" s="4">
         <v>0.45</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="24">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="30">
         <v>0.5</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="30">
         <v>0.5</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="23">
         <v>0.6</v>
       </c>
       <c r="K12" s="5">
@@ -1971,11 +2172,14 @@
       <c r="M12" s="9">
         <v>61</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="18">
         <v>83</v>
       </c>
       <c r="O12" s="9">
         <v>33</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="Q12" s="5">
         <v>0.55000000000000004</v>
@@ -1992,29 +2196,29 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="4">
         <v>0.1</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="21">
         <v>0.9</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="23">
         <v>0.8</v>
       </c>
       <c r="G13" s="5">
         <v>0.2</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="21">
         <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="23">
         <v>0.9</v>
       </c>
       <c r="K13" s="5">
@@ -2026,11 +2230,14 @@
       <c r="M13" s="9">
         <v>17</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="18">
         <v>100</v>
       </c>
       <c r="O13" s="9">
         <v>61</v>
+      </c>
+      <c r="P13" s="30" t="s">
+        <v>53</v>
       </c>
       <c r="Q13" s="5">
         <v>0.2</v>
@@ -2043,33 +2250,33 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="4">
         <v>0.1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="21">
         <v>0.9</v>
       </c>
       <c r="F14" s="4">
         <v>0.3</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="24">
         <v>0.7</v>
       </c>
       <c r="H14">
         <v>0.25</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="21">
         <v>0.75</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="23">
         <v>0.6</v>
       </c>
       <c r="K14" s="5">
@@ -2081,11 +2288,14 @@
       <c r="M14" s="9">
         <v>56</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="18">
         <v>100</v>
       </c>
       <c r="O14" s="9">
         <v>39</v>
+      </c>
+      <c r="P14" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="Q14" s="5">
         <v>0.7</v>
@@ -2102,17 +2312,17 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="4">
+      <c r="C15" s="16"/>
+      <c r="D15" s="27">
         <v>0.5</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="26">
         <v>0.5</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="23">
         <v>0.8</v>
       </c>
       <c r="G15" s="12">
@@ -2121,13 +2331,13 @@
       <c r="H15" s="4">
         <v>0.45</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="24">
         <v>0.55000000000000004</v>
       </c>
       <c r="J15" s="4">
         <v>0.3</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="24">
         <v>0.7</v>
       </c>
       <c r="L15" s="9">
@@ -2139,8 +2349,11 @@
       <c r="N15" s="9">
         <v>50</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="18">
         <v>72</v>
+      </c>
+      <c r="P15" s="28" t="s">
+        <v>58</v>
       </c>
       <c r="Q15" s="12">
         <v>0.2</v>
@@ -2157,45 +2370,48 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="4">
+      <c r="C16" s="16"/>
+      <c r="D16" s="23">
         <v>0.7</v>
       </c>
       <c r="E16" s="5">
         <v>0.3</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="23">
         <v>0.6</v>
       </c>
       <c r="G16" s="12">
         <v>0.4</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="23">
         <v>0.9</v>
       </c>
       <c r="I16" s="5">
         <v>0.1</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="23">
         <v>0.65</v>
       </c>
       <c r="K16" s="5">
         <v>0.35</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="19">
         <v>61</v>
       </c>
       <c r="M16" s="9">
         <v>33</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="19">
         <v>61</v>
       </c>
       <c r="O16" s="9">
         <v>44</v>
+      </c>
+      <c r="P16" s="30" t="s">
+        <v>59</v>
       </c>
       <c r="Q16" s="12">
         <v>0.4</v>
@@ -2212,35 +2428,35 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="4">
         <v>0.4</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="24">
         <v>0.6</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="23">
         <v>0.65</v>
       </c>
       <c r="G17" s="12">
         <v>0.35</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="23">
         <v>0.85</v>
       </c>
       <c r="I17" s="5">
         <v>0.15</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="23">
         <v>0.7</v>
       </c>
       <c r="K17" s="5">
         <v>0.3</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="18">
         <v>100</v>
       </c>
       <c r="M17" s="9">
@@ -2251,6 +2467,9 @@
       </c>
       <c r="O17" s="9">
         <v>39</v>
+      </c>
+      <c r="P17" s="30" t="s">
+        <v>53</v>
       </c>
       <c r="Q17" s="12">
         <v>0.35</v>
@@ -2267,17 +2486,17 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="4">
         <v>0.4</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="24">
         <v>0.6</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="23">
         <v>0.65</v>
       </c>
       <c r="G18" s="12">
@@ -2286,10 +2505,10 @@
       <c r="H18" s="4">
         <v>0.3</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="24">
         <v>0.7</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="23">
         <v>0.65</v>
       </c>
       <c r="K18" s="5">
@@ -2304,8 +2523,11 @@
       <c r="N18" s="9">
         <v>61</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18" s="18">
         <v>67</v>
+      </c>
+      <c r="P18" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="Q18" s="12">
         <v>0.35</v>
@@ -2322,32 +2544,32 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="4">
         <v>0</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="24">
         <v>1</v>
       </c>
       <c r="F19" s="11">
         <v>0.3</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="24">
         <v>0.7</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="27">
         <v>0.5</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="26">
         <v>0.5</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="27">
         <v>0.5</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="26">
         <v>0.5</v>
       </c>
       <c r="L19" s="9">
@@ -2359,8 +2581,11 @@
       <c r="N19" s="9">
         <v>39</v>
       </c>
-      <c r="O19" s="9">
+      <c r="O19" s="18">
         <v>72</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="Q19" s="12">
         <v>0.7</v>
@@ -2377,29 +2602,29 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="15"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="4">
         <v>0.3</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="24">
         <v>0.7</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="23">
         <v>0.6</v>
       </c>
       <c r="G20" s="12">
         <v>0.4</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="27">
         <v>0.5</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="26">
         <v>0.5</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="23">
         <v>0.75</v>
       </c>
       <c r="K20" s="5">
@@ -2411,10 +2636,13 @@
       <c r="M20" s="9">
         <v>50</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="18">
         <v>78</v>
       </c>
       <c r="O20" s="9">
+        <v>61</v>
+      </c>
+      <c r="P20" s="30" t="s">
         <v>61</v>
       </c>
       <c r="Q20" s="12">
@@ -2432,35 +2660,35 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="15"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="4">
         <v>0.2</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="24">
         <v>0.8</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="23">
         <v>0.65</v>
       </c>
       <c r="G21" s="12">
         <v>0.35</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="23">
         <v>0.65</v>
       </c>
       <c r="I21" s="5">
         <v>0.35</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="23">
         <v>0.85</v>
       </c>
       <c r="K21" s="5">
         <v>0.15</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="18">
         <v>83</v>
       </c>
       <c r="M21" s="9">
@@ -2471,6 +2699,9 @@
       </c>
       <c r="O21" s="9">
         <v>33</v>
+      </c>
+      <c r="P21" s="30" t="s">
+        <v>53</v>
       </c>
       <c r="Q21" s="12">
         <v>0.35</v>
@@ -2487,29 +2718,29 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="4">
         <v>0.2</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="24">
         <v>0.8</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="23">
         <v>0.7</v>
       </c>
       <c r="G22" s="12">
         <v>0.3</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="23">
         <v>0.6</v>
       </c>
       <c r="I22" s="5">
         <v>0.4</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="23">
         <v>0.8</v>
       </c>
       <c r="K22" s="5">
@@ -2521,11 +2752,14 @@
       <c r="M22" s="9">
         <v>50</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="18">
         <v>94</v>
       </c>
       <c r="O22" s="9">
         <v>28</v>
+      </c>
+      <c r="P22" s="30" t="s">
+        <v>53</v>
       </c>
       <c r="Q22" s="12">
         <v>0.3</v>
@@ -2542,17 +2776,17 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="11">
         <v>0</v>
       </c>
-      <c r="E23" s="12">
-        <v>1</v>
-      </c>
-      <c r="F23" s="11">
+      <c r="E23" s="24">
+        <v>1</v>
+      </c>
+      <c r="F23" s="23">
         <v>0.65</v>
       </c>
       <c r="G23" s="12">
@@ -2561,10 +2795,10 @@
       <c r="H23" s="11">
         <v>0.45</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="24">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="23">
         <v>0.65</v>
       </c>
       <c r="K23" s="12">
@@ -2576,11 +2810,14 @@
       <c r="M23" s="9">
         <v>22</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="18">
         <v>83</v>
       </c>
       <c r="O23" s="9">
         <v>56</v>
+      </c>
+      <c r="P23" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="Q23" s="12">
         <v>0.35</v>
@@ -2597,11 +2834,11 @@
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="11">
+      <c r="C24" s="16"/>
+      <c r="D24" s="23">
         <v>0.8</v>
       </c>
       <c r="E24" s="12">
@@ -2610,22 +2847,22 @@
       <c r="F24" s="11">
         <v>0.45</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="24">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="23">
         <v>0.65</v>
       </c>
       <c r="I24" s="12">
         <v>0.35</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="23">
         <v>0.6</v>
       </c>
       <c r="K24" s="12">
         <v>0.4</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="18">
         <v>67</v>
       </c>
       <c r="M24" s="9">
@@ -2636,6 +2873,9 @@
       </c>
       <c r="O24" s="9">
         <v>33</v>
+      </c>
+      <c r="P24" s="29" t="s">
+        <v>52</v>
       </c>
       <c r="Q24" s="12">
         <v>0.55000000000000004</v>
@@ -2652,29 +2892,29 @@
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="16"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="4">
         <v>0.1</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="24">
         <v>0.9</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="23">
         <v>0.7</v>
       </c>
       <c r="G25" s="12">
         <v>0.3</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="23">
         <v>0.75</v>
       </c>
       <c r="I25" s="5">
         <v>0.25</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="23">
         <v>0.95</v>
       </c>
       <c r="K25" s="12">
@@ -2686,11 +2926,14 @@
       <c r="M25" s="9">
         <v>50</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="18">
         <v>89</v>
       </c>
       <c r="O25" s="9">
         <v>50</v>
+      </c>
+      <c r="P25" s="30" t="s">
+        <v>53</v>
       </c>
       <c r="Q25" s="12">
         <v>0.3</v>
@@ -2707,27 +2950,113 @@
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="H26" s="4"/>
       <c r="I26" s="5"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="20"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D27" s="11">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>19</v>
+      </c>
+      <c r="F27">
+        <v>14</v>
+      </c>
+      <c r="G27">
+        <v>9</v>
+      </c>
+      <c r="H27">
+        <v>14</v>
+      </c>
+      <c r="I27" s="12">
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <v>19</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27" s="31">
+        <v>6</v>
+      </c>
+      <c r="M27" s="31">
+        <v>0</v>
+      </c>
+      <c r="N27" s="32">
+        <v>11</v>
+      </c>
+      <c r="O27" s="31">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
     </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B23:C23"/>
@@ -2744,6 +3073,14 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2754,7 +3091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -2781,16 +3118,16 @@
       <c r="C3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="15">
         <v>0.1283</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="15">
         <v>0.28070000000000001</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="15">
         <v>-0.15679999999999999</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="15">
         <v>-0.2863</v>
       </c>
     </row>
@@ -2818,16 +3155,16 @@
       <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="15">
         <v>-0.1283</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <v>-0.28070000000000001</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="15">
         <v>0.15679999999999999</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="15">
         <v>0.2863</v>
       </c>
     </row>
@@ -2855,16 +3192,16 @@
       <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="15">
         <v>-2.93E-2</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="15">
         <v>2.46E-2</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="15">
         <v>0.15440000000000001</v>
       </c>
     </row>
@@ -2892,16 +3229,16 @@
       <c r="C9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="15">
         <v>2.93E-2</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="15">
         <v>-2.46E-2</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="15">
         <v>-0.15440000000000001</v>
       </c>
     </row>
@@ -2929,16 +3266,16 @@
       <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="15">
         <v>0.37230000000000002</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <v>-0.42420000000000002</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="15">
         <v>-9.3100000000000002E-2</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="15">
         <v>-0.1575</v>
       </c>
     </row>
@@ -2966,16 +3303,16 @@
       <c r="C13" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="15">
         <v>-0.37230000000000002</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="15">
         <v>0.42420000000000002</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="15">
         <v>9.3100000000000002E-2</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="15">
         <v>0.1575</v>
       </c>
     </row>
@@ -3003,16 +3340,16 @@
       <c r="C15" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="15">
         <v>-0.27210000000000001</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="15">
         <v>0.1671</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="15">
         <v>0.33879999999999999</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="15">
         <v>-0.15279999999999999</v>
       </c>
     </row>
@@ -3040,16 +3377,16 @@
       <c r="C17" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="15">
         <v>0.27210000000000001</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="15">
         <v>-0.1671</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="15">
         <v>-0.33879999999999999</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="15">
         <v>0.15279999999999999</v>
       </c>
     </row>
@@ -3077,16 +3414,16 @@
       <c r="C19" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="15">
         <v>0.2036</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="15">
         <v>-0.26879999999999998</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="15">
         <v>-0.26379999999999998</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="15">
         <v>0.2621</v>
       </c>
     </row>
@@ -3114,16 +3451,16 @@
       <c r="C21" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="15">
         <v>-0.18390000000000001</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="15">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="15">
         <v>0.22159999999999999</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="15">
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
@@ -3151,16 +3488,16 @@
       <c r="C23" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="15">
         <v>-0.246</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="15">
         <v>0.38979999999999998</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="15">
         <v>5.11E-2</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="15">
         <v>1.84E-2</v>
       </c>
     </row>
@@ -3188,16 +3525,16 @@
       <c r="C25" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="15">
         <v>0.3291</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="15">
         <v>-0.24690000000000001</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="15">
         <v>-9.4500000000000001E-2</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="15">
         <v>-0.2394</v>
       </c>
     </row>
